--- a/data/trans_camb/P23_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P23_R-Estudios-trans_camb.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-6.214055334793753</v>
+        <v>-6.582336183198769</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-10.99985922544881</v>
+        <v>-11.1901412160267</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.432416105351119</v>
+        <v>-1.057076064143039</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.530170002560364</v>
+        <v>-2.498796364771644</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.004906198571007</v>
+        <v>-2.918631722769314</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-5.358730485726596</v>
+        <v>-5.645143147914259</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.098530406350512</v>
+        <v>2.153776977618785</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-1.959126151970821</v>
+        <v>-1.676298785073436</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.982903871207927</v>
+        <v>4.168770555239534</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.222789786158626</v>
+        <v>3.334933229938904</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.168411643784165</v>
+        <v>1.918059360440303</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-0.09414896444293634</v>
+        <v>-0.02075282492712874</v>
       </c>
     </row>
     <row r="7">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1635010303726962</v>
+        <v>-0.1708380248328648</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2905458559240314</v>
+        <v>-0.2884025091658907</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.09900822904159744</v>
+        <v>-0.07318989748428714</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1733147966868371</v>
+        <v>-0.174622482143707</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1203187074727455</v>
+        <v>-0.1181826127125153</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.217075485983979</v>
+        <v>-0.2264667448339406</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.06283689381758446</v>
+        <v>0.06194481896860964</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.05869747874147813</v>
+        <v>-0.04826615954359865</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.3262967178561548</v>
+        <v>0.3364843158948673</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.264698593277776</v>
+        <v>0.2789620361405394</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.0992895484051517</v>
+        <v>0.08666923102163475</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.003816673961166957</v>
+        <v>-0.0005404119669232673</v>
       </c>
     </row>
     <row r="10">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-8.104230804224592</v>
+        <v>-7.944360072006071</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-12.13008161718902</v>
+        <v>-12.24038261119413</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.683397036316387</v>
+        <v>-1.587602800693741</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-4.441404655739172</v>
+        <v>-4.54584913697248</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-3.91507932097237</v>
+        <v>-3.861247884268964</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-7.475646255785085</v>
+        <v>-7.433828388072064</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-1.454466198892459</v>
+        <v>-1.401340455361919</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-5.669091277506093</v>
+        <v>-5.632476019254187</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.366506577600575</v>
+        <v>5.275127632198153</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.236380398736021</v>
+        <v>1.767507916766389</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9493439919015972</v>
+        <v>0.8175183937362307</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-3.147651435931222</v>
+        <v>-2.778808942697853</v>
       </c>
     </row>
     <row r="13">
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1624748089448788</v>
+        <v>-0.1604800970656905</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2424110627259382</v>
+        <v>-0.2464022901784748</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.04576409764081828</v>
+        <v>-0.04409217966709651</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1216699122418279</v>
+        <v>-0.1265341680636752</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.09108696097490533</v>
+        <v>-0.08921149600040376</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1751728741921645</v>
+        <v>-0.1741278633073759</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.03016320772955082</v>
+        <v>-0.03031728904210441</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.123170765888499</v>
+        <v>-0.1210473154967152</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.1659969035136595</v>
+        <v>0.161019059225725</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.06584571608901203</v>
+        <v>0.05417556348389306</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.02469069043030682</v>
+        <v>0.02109366382015902</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.07813982320139645</v>
+        <v>-0.06908735964177648</v>
       </c>
     </row>
     <row r="16">
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-7.673005671231241</v>
+        <v>-7.583630861008829</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-15.70318615287087</v>
+        <v>-14.92991909159352</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-4.860631246910841</v>
+        <v>-4.959849565062386</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-12.31363252110746</v>
+        <v>-13.11771503448799</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-5.105994603338686</v>
+        <v>-4.471417690851689</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-12.60246658513489</v>
+        <v>-12.32973108634136</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.536598871851713</v>
+        <v>5.249145649668775</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-4.205717448853279</v>
+        <v>-3.619547329903158</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.058582356096904</v>
+        <v>7.388825151250514</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-1.115485585252117</v>
+        <v>-1.327766326019638</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.009217493303041</v>
+        <v>4.174478398359917</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-4.854590389689668</v>
+        <v>-4.483120297818504</v>
       </c>
     </row>
     <row r="19">
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2046036583861121</v>
+        <v>-0.2067168723035459</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.4127308494740357</v>
+        <v>-0.4005765749512432</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1582717742951594</v>
+        <v>-0.1512250841164645</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.3840979700763522</v>
+        <v>-0.4069676328824472</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1488677607087204</v>
+        <v>-0.1297390396041413</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3625847459974127</v>
+        <v>-0.3530604048299518</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.1421642464429152</v>
+        <v>0.1585200975167205</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.131217515244532</v>
+        <v>-0.09894366671079111</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.27765177974542</v>
+        <v>0.2717413683830016</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>-0.04155567192210485</v>
+        <v>-0.05189400162505705</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1313805510230008</v>
+        <v>0.1435150038699488</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.1570518642696118</v>
+        <v>-0.1457230409655488</v>
       </c>
     </row>
     <row r="22">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-5.315145482570811</v>
+        <v>-5.196246662139359</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-9.637807382844892</v>
+        <v>-9.755669321291679</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.1560277480046979</v>
+        <v>-0.2637195338166154</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.528606920329866</v>
+        <v>-1.556878790107889</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.044059986199084</v>
+        <v>-2.133773463477947</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-4.937884784207442</v>
+        <v>-4.917153200644256</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-0.4201069704949944</v>
+        <v>-0.2001581614620502</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-4.809230337203925</v>
+        <v>-4.902637337685399</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4.017604957740764</v>
+        <v>4.079756546837821</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.546464751172617</v>
+        <v>2.644699958039117</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.235980154649974</v>
+        <v>1.290154708955343</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-1.59825635626043</v>
+        <v>-1.690401884898055</v>
       </c>
     </row>
     <row r="25">
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1216028829473663</v>
+        <v>-0.1198091506504813</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.2219004601064329</v>
+        <v>-0.224011108428993</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.005819258573838224</v>
+        <v>-0.008970764064943321</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.05725191964682144</v>
+        <v>-0.05853666952058972</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.05885746722260315</v>
+        <v>-0.06182582453413969</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1436018352274055</v>
+        <v>-0.1438344621685133</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.00955484052759298</v>
+        <v>-0.004231682631381777</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.1159868639513583</v>
+        <v>-0.1210435193995457</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.1626621914574172</v>
+        <v>0.1652274937535859</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.1039168385567051</v>
+        <v>0.108604229665221</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.03762463037658683</v>
+        <v>0.03907033974090864</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>-0.04877174340618085</v>
+        <v>-0.05289570499716754</v>
       </c>
     </row>
     <row r="28">
